--- a/doc/Master BOM.xlsx
+++ b/doc/Master BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Identifiers</t>
   </si>
@@ -158,21 +158,6 @@
   </si>
   <si>
     <t>U1, U2, U3</t>
-  </si>
-  <si>
-    <t>X6</t>
-  </si>
-  <si>
-    <t>Tactile Button Switch</t>
-  </si>
-  <si>
-    <t>6 x 6 mm</t>
-  </si>
-  <si>
-    <t>B3F-10XX</t>
-  </si>
-  <si>
-    <t>Omron</t>
   </si>
 </sst>
 </file>
@@ -226,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,12 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -316,18 +295,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -339,13 +306,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -736,10 +699,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,7 +787,7 @@
       <c r="I2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="10">
         <v>30.58</v>
       </c>
       <c r="K2" s="6">
@@ -863,7 +826,7 @@
       <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>9.9499999999999993</v>
       </c>
       <c r="K3" s="6">
@@ -878,7 +841,7 @@
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -902,7 +865,7 @@
       <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>10</v>
       </c>
       <c r="K4" s="6">
@@ -929,7 +892,7 @@
       <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -941,7 +904,7 @@
       <c r="I5" s="6">
         <v>1</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>1.95</v>
       </c>
       <c r="K5" s="6">
@@ -980,7 +943,7 @@
       <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>2.75</v>
       </c>
       <c r="K6" s="6">
@@ -992,90 +955,51 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="11">
         <v>0.2</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6">
-        <v>367</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" ref="L8" si="1">I8*J8</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="K9" s="17" t="s">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="K8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="18">
-        <f>SUM(L2:L8)</f>
-        <v>58.330000000000005</v>
+      <c r="L8" s="14">
+        <f>SUM(L2:L7)</f>
+        <v>55.830000000000005</v>
       </c>
     </row>
   </sheetData>
